--- a/download/新增任务流模板.xlsx
+++ b/download/新增任务流模板.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>任务流名称1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,26 @@
   </si>
   <si>
     <t>重试次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖任务流序号(本次新建任务流)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖任务流id(已有任务流)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,10 +144,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,102 +431,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>43789</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>43785</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="2"/>
+      <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>43796</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>43758</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
